--- a/MultipleDe5.xlsx
+++ b/MultipleDe5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diego/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29ACDBDD-3B5C-8045-80B7-B241F8B4EEDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E676C19E-1EC6-7244-9E3A-E9A1FBAE312A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5100" yWindow="4840" windowWidth="28040" windowHeight="17440" xr2:uid="{91A59B0B-EA59-E34C-98F8-EFB362C77219}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -362,6 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -687,7 +688,7 @@
   <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1149,7 +1150,7 @@
       <c r="M14">
         <v>0</v>
       </c>
-      <c r="N14" s="3"/>
+      <c r="N14" s="12"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
@@ -1185,6 +1186,7 @@
       <c r="M15">
         <v>0</v>
       </c>
+      <c r="N15" s="12"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16">
